--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl5-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl5-Ccr5.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.614534333333333</v>
+        <v>1.893344666666666</v>
       </c>
       <c r="H2">
-        <v>4.843603</v>
+        <v>5.680033999999999</v>
       </c>
       <c r="I2">
-        <v>0.10197989862822</v>
+        <v>0.05525983881677096</v>
       </c>
       <c r="J2">
-        <v>0.10197989862822</v>
+        <v>0.05525983881677096</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.006469</v>
+        <v>0.007957000000000001</v>
       </c>
       <c r="N2">
-        <v>0.019407</v>
+        <v>0.023871</v>
       </c>
       <c r="O2">
-        <v>0.0002012817583373685</v>
+        <v>0.0002448939493579708</v>
       </c>
       <c r="P2">
-        <v>0.0002012817583373685</v>
+        <v>0.0002448939493579708</v>
       </c>
       <c r="Q2">
-        <v>0.01044442260233333</v>
+        <v>0.01506534351266667</v>
       </c>
       <c r="R2">
-        <v>0.09399980342100001</v>
+        <v>0.135588091614</v>
       </c>
       <c r="S2">
-        <v>2.052669331095472E-05</v>
+        <v>1.353280016872393E-05</v>
       </c>
       <c r="T2">
-        <v>2.052669331095472E-05</v>
+        <v>1.353280016872393E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.614534333333333</v>
+        <v>1.893344666666666</v>
       </c>
       <c r="H3">
-        <v>4.843603</v>
+        <v>5.680033999999999</v>
       </c>
       <c r="I3">
-        <v>0.10197989862822</v>
+        <v>0.05525983881677096</v>
       </c>
       <c r="J3">
-        <v>0.10197989862822</v>
+        <v>0.05525983881677096</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.316709</v>
       </c>
       <c r="O3">
-        <v>0.00328478097600194</v>
+        <v>0.003249135679578298</v>
       </c>
       <c r="P3">
-        <v>0.00328478097600194</v>
+        <v>0.003249135679578299</v>
       </c>
       <c r="Q3">
-        <v>0.1704458513918889</v>
+        <v>0.1998797653451111</v>
       </c>
       <c r="R3">
-        <v>1.534012662527</v>
+        <v>1.798917888106</v>
       </c>
       <c r="S3">
-        <v>0.0003349816309485836</v>
+        <v>0.0001795467139473163</v>
       </c>
       <c r="T3">
-        <v>0.0003349816309485835</v>
+        <v>0.0001795467139473164</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.614534333333333</v>
+        <v>1.893344666666666</v>
       </c>
       <c r="H4">
-        <v>4.843603</v>
+        <v>5.680033999999999</v>
       </c>
       <c r="I4">
-        <v>0.10197989862822</v>
+        <v>0.05525983881677096</v>
       </c>
       <c r="J4">
-        <v>0.10197989862822</v>
+        <v>0.05525983881677096</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.573836</v>
+        <v>0.02449766666666667</v>
       </c>
       <c r="N4">
-        <v>1.721508</v>
+        <v>0.073493</v>
       </c>
       <c r="O4">
-        <v>0.01785480276353103</v>
+        <v>0.0007539688752111494</v>
       </c>
       <c r="P4">
-        <v>0.01785480276353102</v>
+        <v>0.0007539688752111494</v>
       </c>
       <c r="Q4">
-        <v>0.9264779237026667</v>
+        <v>0.04638252652911111</v>
       </c>
       <c r="R4">
-        <v>8.338301313323999</v>
+        <v>0.4174427387619999</v>
       </c>
       <c r="S4">
-        <v>0.001820830975851757</v>
+        <v>4.166419851703021E-05</v>
       </c>
       <c r="T4">
-        <v>0.001820830975851757</v>
+        <v>4.166419851703021E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.614534333333333</v>
+        <v>1.893344666666666</v>
       </c>
       <c r="H5">
-        <v>4.843603</v>
+        <v>5.680033999999999</v>
       </c>
       <c r="I5">
-        <v>0.10197989862822</v>
+        <v>0.05525983881677096</v>
       </c>
       <c r="J5">
-        <v>0.10197989862822</v>
+        <v>0.05525983881677096</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.453153</v>
+        <v>32.353591</v>
       </c>
       <c r="N5">
-        <v>94.359459</v>
+        <v>97.060773</v>
       </c>
       <c r="O5">
-        <v>0.9786591345021298</v>
+        <v>0.9957520014958525</v>
       </c>
       <c r="P5">
-        <v>0.9786591345021296</v>
+        <v>0.9957520014958525</v>
       </c>
       <c r="Q5">
-        <v>50.78219541008633</v>
+        <v>61.25649896736466</v>
       </c>
       <c r="R5">
-        <v>457.039758690777</v>
+        <v>551.3084907062819</v>
       </c>
       <c r="S5">
-        <v>0.09980355932810876</v>
+        <v>0.05502509510413788</v>
       </c>
       <c r="T5">
-        <v>0.09980355932810875</v>
+        <v>0.05502509510413788</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.159773333333333</v>
+        <v>4.159773333333334</v>
       </c>
       <c r="H6">
         <v>12.47932</v>
       </c>
       <c r="I6">
-        <v>0.2627465109236077</v>
+        <v>0.1214086415227279</v>
       </c>
       <c r="J6">
-        <v>0.2627465109236077</v>
+        <v>0.1214086415227279</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.006469</v>
+        <v>0.007957000000000001</v>
       </c>
       <c r="N6">
-        <v>0.019407</v>
+        <v>0.023871</v>
       </c>
       <c r="O6">
-        <v>0.0002012817583373685</v>
+        <v>0.0002448939493579708</v>
       </c>
       <c r="P6">
-        <v>0.0002012817583373685</v>
+        <v>0.0002448939493579708</v>
       </c>
       <c r="Q6">
-        <v>0.02690957369333333</v>
+        <v>0.03309931641333334</v>
       </c>
       <c r="R6">
-        <v>0.24218616324</v>
+        <v>0.29789384772</v>
       </c>
       <c r="S6">
-        <v>5.288607971571235E-05</v>
+        <v>2.973224170868695E-05</v>
       </c>
       <c r="T6">
-        <v>5.288607971571235E-05</v>
+        <v>2.973224170868695E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.159773333333333</v>
+        <v>4.159773333333334</v>
       </c>
       <c r="H7">
         <v>12.47932</v>
       </c>
       <c r="I7">
-        <v>0.2627465109236077</v>
+        <v>0.1214086415227279</v>
       </c>
       <c r="J7">
-        <v>0.2627465109236077</v>
+        <v>0.1214086415227279</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,22 +871,22 @@
         <v>0.316709</v>
       </c>
       <c r="O7">
-        <v>0.00328478097600194</v>
+        <v>0.003249135679578298</v>
       </c>
       <c r="P7">
-        <v>0.00328478097600194</v>
+        <v>0.003249135679578299</v>
       </c>
       <c r="Q7">
         <v>0.4391458842088889</v>
       </c>
       <c r="R7">
-        <v>3.95231295788</v>
+        <v>3.952312957880001</v>
       </c>
       <c r="S7">
-        <v>0.0008630647405927525</v>
+        <v>0.0003944731489806265</v>
       </c>
       <c r="T7">
-        <v>0.0008630647405927524</v>
+        <v>0.0003944731489806266</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.159773333333333</v>
+        <v>4.159773333333334</v>
       </c>
       <c r="H8">
         <v>12.47932</v>
       </c>
       <c r="I8">
-        <v>0.2627465109236077</v>
+        <v>0.1214086415227279</v>
       </c>
       <c r="J8">
-        <v>0.2627465109236077</v>
+        <v>0.1214086415227279</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.573836</v>
+        <v>0.02449766666666667</v>
       </c>
       <c r="N8">
-        <v>1.721508</v>
+        <v>0.073493</v>
       </c>
       <c r="O8">
-        <v>0.01785480276353103</v>
+        <v>0.0007539688752111494</v>
       </c>
       <c r="P8">
-        <v>0.01785480276353102</v>
+        <v>0.0007539688752111494</v>
       </c>
       <c r="Q8">
-        <v>2.387027690506666</v>
+        <v>0.1019047405288889</v>
       </c>
       <c r="R8">
-        <v>21.48324921456</v>
+        <v>0.9171426647600002</v>
       </c>
       <c r="S8">
-        <v>0.004691287129346965</v>
+        <v>9.153833688980479E-05</v>
       </c>
       <c r="T8">
-        <v>0.004691287129346964</v>
+        <v>9.153833688980479E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.159773333333333</v>
+        <v>4.159773333333334</v>
       </c>
       <c r="H9">
         <v>12.47932</v>
       </c>
       <c r="I9">
-        <v>0.2627465109236077</v>
+        <v>0.1214086415227279</v>
       </c>
       <c r="J9">
-        <v>0.2627465109236077</v>
+        <v>0.1214086415227279</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>31.453153</v>
+        <v>32.353591</v>
       </c>
       <c r="N9">
-        <v>94.359459</v>
+        <v>97.060773</v>
       </c>
       <c r="O9">
-        <v>0.9786591345021298</v>
+        <v>0.9957520014958525</v>
       </c>
       <c r="P9">
-        <v>0.9786591345021296</v>
+        <v>0.9957520014958525</v>
       </c>
       <c r="Q9">
-        <v>130.8379870986533</v>
+        <v>134.5836050793733</v>
       </c>
       <c r="R9">
-        <v>1177.54188388788</v>
+        <v>1211.25244571436</v>
       </c>
       <c r="S9">
-        <v>0.2571392729739523</v>
+        <v>0.1208928977951488</v>
       </c>
       <c r="T9">
-        <v>0.2571392729739522</v>
+        <v>0.1208928977951488</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3657366666666667</v>
+        <v>1.240212333333333</v>
       </c>
       <c r="H10">
-        <v>1.09721</v>
+        <v>3.720637</v>
       </c>
       <c r="I10">
-        <v>0.02310126667562748</v>
+        <v>0.03619728348733726</v>
       </c>
       <c r="J10">
-        <v>0.02310126667562749</v>
+        <v>0.03619728348733727</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,28 +1051,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.006469</v>
+        <v>0.007957000000000001</v>
       </c>
       <c r="N10">
-        <v>0.019407</v>
+        <v>0.023871</v>
       </c>
       <c r="O10">
-        <v>0.0002012817583373685</v>
+        <v>0.0002448939493579708</v>
       </c>
       <c r="P10">
-        <v>0.0002012817583373685</v>
+        <v>0.0002448939493579708</v>
       </c>
       <c r="Q10">
-        <v>0.002365950496666666</v>
+        <v>0.009868369536333334</v>
       </c>
       <c r="R10">
-        <v>0.02129355447</v>
+        <v>0.088815325827</v>
       </c>
       <c r="S10">
-        <v>4.649863576290755E-06</v>
+        <v>8.864495709244083E-06</v>
       </c>
       <c r="T10">
-        <v>4.649863576290756E-06</v>
+        <v>8.864495709244084E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3657366666666667</v>
+        <v>1.240212333333333</v>
       </c>
       <c r="H11">
-        <v>1.09721</v>
+        <v>3.720637</v>
       </c>
       <c r="I11">
-        <v>0.02310126667562748</v>
+        <v>0.03619728348733726</v>
       </c>
       <c r="J11">
-        <v>0.02310126667562749</v>
+        <v>0.03619728348733727</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.316709</v>
       </c>
       <c r="O11">
-        <v>0.00328478097600194</v>
+        <v>0.003249135679578298</v>
       </c>
       <c r="P11">
-        <v>0.00328478097600194</v>
+        <v>0.003249135679578299</v>
       </c>
       <c r="Q11">
-        <v>0.03861069798777778</v>
+        <v>0.1309288026258889</v>
       </c>
       <c r="R11">
-        <v>0.34749628189</v>
+        <v>1.178359223633</v>
       </c>
       <c r="S11">
-        <v>7.588260129764873E-05</v>
+        <v>0.0001176098852825179</v>
       </c>
       <c r="T11">
-        <v>7.588260129764873E-05</v>
+        <v>0.0001176098852825179</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3657366666666667</v>
+        <v>1.240212333333333</v>
       </c>
       <c r="H12">
-        <v>1.09721</v>
+        <v>3.720637</v>
       </c>
       <c r="I12">
-        <v>0.02310126667562748</v>
+        <v>0.03619728348733726</v>
       </c>
       <c r="J12">
-        <v>0.02310126667562749</v>
+        <v>0.03619728348733727</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.573836</v>
+        <v>0.02449766666666667</v>
       </c>
       <c r="N12">
-        <v>1.721508</v>
+        <v>0.073493</v>
       </c>
       <c r="O12">
-        <v>0.01785480276353103</v>
+        <v>0.0007539688752111494</v>
       </c>
       <c r="P12">
-        <v>0.01785480276353102</v>
+        <v>0.0007539688752111494</v>
       </c>
       <c r="Q12">
-        <v>0.2098728658533333</v>
+        <v>0.03038230833788889</v>
       </c>
       <c r="R12">
-        <v>1.88885579268</v>
+        <v>0.273440775041</v>
       </c>
       <c r="S12">
-        <v>0.0004124685600810608</v>
+        <v>2.729162511664679E-05</v>
       </c>
       <c r="T12">
-        <v>0.0004124685600810608</v>
+        <v>2.729162511664679E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3657366666666667</v>
+        <v>1.240212333333333</v>
       </c>
       <c r="H13">
-        <v>1.09721</v>
+        <v>3.720637</v>
       </c>
       <c r="I13">
-        <v>0.02310126667562748</v>
+        <v>0.03619728348733726</v>
       </c>
       <c r="J13">
-        <v>0.02310126667562749</v>
+        <v>0.03619728348733727</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>31.453153</v>
+        <v>32.353591</v>
       </c>
       <c r="N13">
-        <v>94.359459</v>
+        <v>97.060773</v>
       </c>
       <c r="O13">
-        <v>0.9786591345021298</v>
+        <v>0.9957520014958525</v>
       </c>
       <c r="P13">
-        <v>0.9786591345021296</v>
+        <v>0.9957520014958525</v>
       </c>
       <c r="Q13">
-        <v>11.50357133437667</v>
+        <v>40.12532258582233</v>
       </c>
       <c r="R13">
-        <v>103.53214200939</v>
+        <v>361.127903272401</v>
       </c>
       <c r="S13">
-        <v>0.02260826565067249</v>
+        <v>0.03604351748122885</v>
       </c>
       <c r="T13">
-        <v>0.02260826565067248</v>
+        <v>0.03604351748122886</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.691843666666665</v>
+        <v>26.96925</v>
       </c>
       <c r="H14">
-        <v>29.075531</v>
+        <v>80.90774999999999</v>
       </c>
       <c r="I14">
-        <v>0.6121723237725447</v>
+        <v>0.7871342361731639</v>
       </c>
       <c r="J14">
-        <v>0.6121723237725448</v>
+        <v>0.7871342361731638</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1299,28 +1299,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.006469</v>
+        <v>0.007957000000000001</v>
       </c>
       <c r="N14">
-        <v>0.019407</v>
+        <v>0.023871</v>
       </c>
       <c r="O14">
-        <v>0.0002012817583373685</v>
+        <v>0.0002448939493579708</v>
       </c>
       <c r="P14">
-        <v>0.0002012817583373685</v>
+        <v>0.0002448939493579708</v>
       </c>
       <c r="Q14">
-        <v>0.06269653667966665</v>
+        <v>0.21459432225</v>
       </c>
       <c r="R14">
-        <v>0.564268830117</v>
+        <v>1.93134890025</v>
       </c>
       <c r="S14">
-        <v>0.0001232191217344107</v>
+        <v>0.0001927644117713158</v>
       </c>
       <c r="T14">
-        <v>0.0001232191217344107</v>
+        <v>0.0001927644117713158</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.691843666666665</v>
+        <v>26.96925</v>
       </c>
       <c r="H15">
-        <v>29.075531</v>
+        <v>80.90774999999999</v>
       </c>
       <c r="I15">
-        <v>0.6121723237725447</v>
+        <v>0.7871342361731639</v>
       </c>
       <c r="J15">
-        <v>0.6121723237725448</v>
+        <v>0.7871342361731638</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>0.316709</v>
       </c>
       <c r="O15">
-        <v>0.00328478097600194</v>
+        <v>0.003249135679578298</v>
       </c>
       <c r="P15">
-        <v>0.00328478097600194</v>
+        <v>0.003249135679578299</v>
       </c>
       <c r="Q15">
-        <v>1.023164705275444</v>
+        <v>2.84713473275</v>
       </c>
       <c r="R15">
-        <v>9.208482347479</v>
+        <v>25.62421259475</v>
       </c>
       <c r="S15">
-        <v>0.002010852003162955</v>
+        <v>0.002557505931367838</v>
       </c>
       <c r="T15">
-        <v>0.002010852003162955</v>
+        <v>0.002557505931367838</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.691843666666665</v>
+        <v>26.96925</v>
       </c>
       <c r="H16">
-        <v>29.075531</v>
+        <v>80.90774999999999</v>
       </c>
       <c r="I16">
-        <v>0.6121723237725447</v>
+        <v>0.7871342361731639</v>
       </c>
       <c r="J16">
-        <v>0.6121723237725448</v>
+        <v>0.7871342361731638</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.573836</v>
+        <v>0.02449766666666667</v>
       </c>
       <c r="N16">
-        <v>1.721508</v>
+        <v>0.073493</v>
       </c>
       <c r="O16">
-        <v>0.01785480276353103</v>
+        <v>0.0007539688752111494</v>
       </c>
       <c r="P16">
-        <v>0.01785480276353102</v>
+        <v>0.0007539688752111494</v>
       </c>
       <c r="Q16">
-        <v>5.561528802305332</v>
+        <v>0.66068369675</v>
       </c>
       <c r="R16">
-        <v>50.053759220748</v>
+        <v>5.94615327075</v>
       </c>
       <c r="S16">
-        <v>0.01093021609825124</v>
+        <v>0.0005934747146876676</v>
       </c>
       <c r="T16">
-        <v>0.01093021609825124</v>
+        <v>0.0005934747146876675</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.691843666666665</v>
+        <v>26.96925</v>
       </c>
       <c r="H17">
-        <v>29.075531</v>
+        <v>80.90774999999999</v>
       </c>
       <c r="I17">
-        <v>0.6121723237725447</v>
+        <v>0.7871342361731639</v>
       </c>
       <c r="J17">
-        <v>0.6121723237725448</v>
+        <v>0.7871342361731638</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>31.453153</v>
+        <v>32.353591</v>
       </c>
       <c r="N17">
-        <v>94.359459</v>
+        <v>97.060773</v>
       </c>
       <c r="O17">
-        <v>0.9786591345021298</v>
+        <v>0.9957520014958525</v>
       </c>
       <c r="P17">
-        <v>0.9786591345021296</v>
+        <v>0.9957520014958525</v>
       </c>
       <c r="Q17">
-        <v>304.8390416997476</v>
+        <v>872.55208407675</v>
       </c>
       <c r="R17">
-        <v>2743.551375297729</v>
+        <v>7852.968756690749</v>
       </c>
       <c r="S17">
-        <v>0.5991080365493962</v>
+        <v>0.7837904911153371</v>
       </c>
       <c r="T17">
-        <v>0.5991080365493962</v>
+        <v>0.7837904911153369</v>
       </c>
     </row>
   </sheetData>
